--- a/analyses/con_diag.xlsx
+++ b/analyses/con_diag.xlsx
@@ -93,7 +93,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,13 +103,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -170,10 +164,10 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -504,7 +498,7 @@
     <col min="9" max="9" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -533,7 +527,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
@@ -562,7 +556,7 @@
         <v>498</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
@@ -591,7 +585,7 @@
         <v>730</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
@@ -620,7 +614,7 @@
         <v>771</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
@@ -649,7 +643,7 @@
         <v>776</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
@@ -678,7 +672,7 @@
         <v>730</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
@@ -707,7 +701,7 @@
         <v>679</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="4" t="s">
         <v>15</v>
       </c>
@@ -736,7 +730,7 @@
         <v>775</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="4" t="s">
         <v>16</v>
       </c>
@@ -765,7 +759,7 @@
         <v>753</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="4" t="s">
         <v>17</v>
       </c>
@@ -794,7 +788,7 @@
         <v>778</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="4" t="s">
         <v>18</v>
       </c>
@@ -802,7 +796,7 @@
         <v>80879</v>
       </c>
       <c r="C11" s="6">
-        <v>0.01533449200544057</v>
+        <v>0.015334492005441</v>
       </c>
       <c r="D11" s="6">
         <v>-0.1021114525349014</v>
@@ -823,7 +817,7 @@
         <v>780</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="4" t="s">
         <v>19</v>
       </c>
@@ -852,7 +846,7 @@
         <v>755</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="4" t="s">
         <v>20</v>
       </c>
@@ -881,7 +875,7 @@
         <v>756</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="4" t="s">
         <v>21</v>
       </c>
@@ -910,7 +904,7 @@
         <v>764</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="4" t="s">
         <v>22</v>
       </c>
@@ -939,7 +933,7 @@
         <v>764</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="4" t="s">
         <v>23</v>
       </c>
